--- a/docs/requirements/Requirements Detailing References/ID-Authentication/Sprint 11/Consolidated error messages V2.5.xlsx
+++ b/docs/requirements/Requirements Detailing References/ID-Authentication/Sprint 11/Consolidated error messages V2.5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1012602\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIPRequirementsGithub\docs\requirements\Requirements Detailing References\ID-Authentication\Sprint 11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0FC7D20D-29BD-49AB-93F6-E668CFEA4BA7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8BF123F0-1457-4E76-B12C-2B9C1AF12BEF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IDA!$A$1:$L$70</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ID-Repo'!$1:$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ID-Repo'!$1:$29</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="321">
   <si>
     <t>IDA-MLC-003</t>
   </si>
@@ -1001,9 +1001,6 @@
     <t>“Device provider not registered with MOSIP”</t>
   </si>
   <si>
-    <t>IDA-MLC-017</t>
-  </si>
-  <si>
     <t>Authorization Failed</t>
   </si>
   <si>
@@ -1068,12 +1065,6 @@
   </si>
   <si>
     <t>transactionID inside the biometric data does not match with other transactionID in auth request</t>
-  </si>
-  <si>
-    <t>IDA-MLC-018</t>
-  </si>
-  <si>
-    <t>Could not process request/Unknown error; Invalid Auth Request</t>
   </si>
   <si>
     <t>“Unable to decrypt Request.”</t>
@@ -1238,6 +1229,33 @@
   </si>
   <si>
     <t>IDA-OTA-001</t>
+  </si>
+  <si>
+    <t>IDA-EKA-001</t>
+  </si>
+  <si>
+    <t>“Unable to encrypt eKYC response"</t>
+  </si>
+  <si>
+    <t>Invalid encryption of eKYC response</t>
+  </si>
+  <si>
+    <t>Could not process request/Unknown error; Invalid Auth Request; Unable to encrypt eKYC response</t>
+  </si>
+  <si>
+    <t>Unable to generate/regenerate VID - kernel</t>
+  </si>
+  <si>
+    <t>IDR-VID-007</t>
+  </si>
+  <si>
+    <t>Error to be Logged/Response</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Logged</t>
   </si>
 </sst>
 </file>
@@ -1500,7 +1518,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1581,6 +1599,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1926,17 +1945,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="28.5" customHeight="1" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" style="12" customWidth="1"/>
     <col min="3" max="3" width="44.42578125" style="12" customWidth="1"/>
     <col min="4" max="4" width="48.28515625" style="12" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="19.7109375" style="12" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -1967,8 +1985,11 @@
       <c r="G1" s="3" t="s">
         <v>212</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>318</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1988,8 +2009,11 @@
         <v>4</v>
       </c>
       <c r="G2" s="8"/>
+      <c r="H2" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2009,8 +2033,11 @@
         <v>0</v>
       </c>
       <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2030,8 +2057,11 @@
         <v>19</v>
       </c>
       <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2051,8 +2081,11 @@
         <v>23</v>
       </c>
       <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2069,11 +2102,14 @@
         <v>24</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" s="30" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="30" customFormat="1" ht="28.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23">
         <v>6</v>
       </c>
@@ -2093,13 +2129,15 @@
         <v>28</v>
       </c>
       <c r="G7" s="29"/>
-      <c r="H7" s="25"/>
+      <c r="H7" s="8" t="s">
+        <v>319</v>
+      </c>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
     </row>
-    <row r="8" spans="1:12" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2112,11 +2150,14 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2132,8 +2173,11 @@
         <v>28</v>
       </c>
       <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2153,8 +2197,11 @@
         <v>31</v>
       </c>
       <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2174,8 +2221,11 @@
         <v>34</v>
       </c>
       <c r="G11" s="8"/>
+      <c r="H11" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2191,8 +2241,11 @@
         <v>39</v>
       </c>
       <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2208,13 +2261,16 @@
         <v>97</v>
       </c>
       <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" ht="47.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="63" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>118</v>
@@ -2225,16 +2281,19 @@
         <v>100</v>
       </c>
       <c r="G14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" ht="63" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="63" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>187</v>
@@ -2246,8 +2305,11 @@
         <v>48</v>
       </c>
       <c r="G15" s="8"/>
+      <c r="H15" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="16" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2267,8 +2329,11 @@
         <v>53</v>
       </c>
       <c r="G16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="17" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2286,8 +2351,11 @@
         <v>50</v>
       </c>
       <c r="G17" s="8"/>
+      <c r="H17" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="18" spans="1:7" ht="78.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2300,11 +2368,14 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>210</v>
+        <v>121</v>
       </c>
       <c r="G18" s="8"/>
+      <c r="H18" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="19" spans="1:7" s="25" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="25" customFormat="1" ht="28.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
         <v>18</v>
       </c>
@@ -2322,8 +2393,11 @@
       <c r="G19" s="31" t="s">
         <v>213</v>
       </c>
+      <c r="H19" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="20" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2343,8 +2417,11 @@
         <v>208</v>
       </c>
       <c r="G20" s="8"/>
+      <c r="H20" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="21" spans="1:7" ht="28.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2364,8 +2441,11 @@
         <v>63</v>
       </c>
       <c r="G21" s="8"/>
+      <c r="H21" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="22" spans="1:7" ht="28.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2385,8 +2465,11 @@
         <v>241</v>
       </c>
       <c r="G22" s="8"/>
+      <c r="H22" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="23" spans="1:7" ht="28.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>23</v>
       </c>
@@ -2402,8 +2485,11 @@
         <v>67</v>
       </c>
       <c r="G23" s="8"/>
+      <c r="H23" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="24" spans="1:7" ht="28.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>24</v>
       </c>
@@ -2419,8 +2505,11 @@
         <v>242</v>
       </c>
       <c r="G24" s="8"/>
+      <c r="H24" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="25" spans="1:7" ht="28.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>25</v>
       </c>
@@ -2436,8 +2525,11 @@
         <v>70</v>
       </c>
       <c r="G25" s="8"/>
+      <c r="H25" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="26" spans="1:7" ht="31.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>28</v>
       </c>
@@ -2445,7 +2537,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>92</v>
@@ -2457,8 +2549,11 @@
         <v>72</v>
       </c>
       <c r="G26" s="8"/>
+      <c r="H26" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>33</v>
       </c>
@@ -2478,8 +2573,11 @@
         <v>73</v>
       </c>
       <c r="G27" s="8"/>
+      <c r="H27" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>34</v>
       </c>
@@ -2495,8 +2593,11 @@
         <v>74</v>
       </c>
       <c r="G28" s="8"/>
+      <c r="H28" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="29" spans="1:7" ht="47.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>35</v>
       </c>
@@ -2504,7 +2605,7 @@
         <v>85</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -2512,8 +2613,11 @@
         <v>208</v>
       </c>
       <c r="G29" s="8"/>
+      <c r="H29" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="30" spans="1:7" ht="31.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>36</v>
       </c>
@@ -2531,8 +2635,11 @@
       <c r="G30" s="6">
         <v>2</v>
       </c>
+      <c r="H30" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="31" spans="1:7" ht="28.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>37</v>
       </c>
@@ -2548,8 +2655,11 @@
         <v>175</v>
       </c>
       <c r="G31" s="8"/>
+      <c r="H31" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="32" spans="1:7" ht="28.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>38</v>
       </c>
@@ -2565,8 +2675,11 @@
         <v>162</v>
       </c>
       <c r="G32" s="8"/>
+      <c r="H32" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="33" spans="1:12" ht="31.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>39</v>
       </c>
@@ -2582,8 +2695,11 @@
         <v>163</v>
       </c>
       <c r="G33" s="8"/>
+      <c r="H33" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="34" spans="1:12" ht="28.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>40</v>
       </c>
@@ -2591,7 +2707,7 @@
         <v>200</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
@@ -2599,8 +2715,11 @@
         <v>164</v>
       </c>
       <c r="G34" s="8"/>
+      <c r="H34" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="35" spans="1:12" ht="70.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>41</v>
       </c>
@@ -2616,8 +2735,11 @@
         <v>107</v>
       </c>
       <c r="G35" s="8"/>
+      <c r="H35" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="36" spans="1:12" ht="28.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>42</v>
       </c>
@@ -2631,8 +2753,11 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
+      <c r="H36" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="37" spans="1:12" ht="31.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>43</v>
       </c>
@@ -2648,8 +2773,11 @@
         <v>44</v>
       </c>
       <c r="G37" s="8"/>
+      <c r="H37" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="38" spans="1:12" ht="31.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>44</v>
       </c>
@@ -2665,8 +2793,11 @@
         <v>46</v>
       </c>
       <c r="G38" s="8"/>
+      <c r="H38" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="39" spans="1:12" ht="28.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>46</v>
       </c>
@@ -2682,8 +2813,11 @@
         <v>77</v>
       </c>
       <c r="G39" s="8"/>
+      <c r="H39" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="40" spans="1:12" ht="28.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>47</v>
       </c>
@@ -2694,7 +2828,7 @@
         <v>214</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>59</v>
@@ -2703,8 +2837,11 @@
         <v>102</v>
       </c>
       <c r="G40" s="8"/>
+      <c r="H40" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="41" spans="1:12" ht="31.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>48</v>
       </c>
@@ -2720,16 +2857,19 @@
         <v>106</v>
       </c>
       <c r="G41" s="8"/>
+      <c r="H41" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="42" spans="1:12" s="25" customFormat="1" ht="28.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" s="25" customFormat="1" ht="28.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="23">
         <v>49</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D42" s="26"/>
       <c r="E42" s="6"/>
@@ -2737,8 +2877,11 @@
         <v>108</v>
       </c>
       <c r="G42" s="24"/>
+      <c r="H42" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="43" spans="1:12" s="25" customFormat="1" ht="28.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" s="25" customFormat="1" ht="28.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="23">
         <v>50</v>
       </c>
@@ -2754,8 +2897,11 @@
         <v>109</v>
       </c>
       <c r="G43" s="24"/>
+      <c r="H43" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="44" spans="1:12" ht="31.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>51</v>
       </c>
@@ -2763,16 +2909,19 @@
         <v>119</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="6" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G44" s="8"/>
+      <c r="H44" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="45" spans="1:12" ht="31.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>52</v>
       </c>
@@ -2789,11 +2938,14 @@
         <v>60</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G45" s="8"/>
+      <c r="H45" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="46" spans="1:12" ht="28.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>53</v>
       </c>
@@ -2811,8 +2963,11 @@
         <v>165</v>
       </c>
       <c r="G46" s="8"/>
+      <c r="H46" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="47" spans="1:12" s="32" customFormat="1" ht="28.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" s="32" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="23">
         <v>54</v>
       </c>
@@ -2832,13 +2987,15 @@
       <c r="G47" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="H47" s="25"/>
+      <c r="H47" s="8" t="s">
+        <v>319</v>
+      </c>
       <c r="I47" s="25"/>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
     </row>
-    <row r="48" spans="1:12" ht="31.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>55</v>
       </c>
@@ -2854,8 +3011,11 @@
         <v>166</v>
       </c>
       <c r="G48" s="8"/>
+      <c r="H48" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="49" spans="1:7" ht="47.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>56</v>
       </c>
@@ -2871,8 +3031,11 @@
         <v>167</v>
       </c>
       <c r="G49" s="8"/>
+      <c r="H49" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="50" spans="1:7" ht="47.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>57</v>
       </c>
@@ -2888,8 +3051,11 @@
         <v>168</v>
       </c>
       <c r="G50" s="8"/>
+      <c r="H50" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="51" spans="1:7" ht="28.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>58</v>
       </c>
@@ -2905,8 +3071,11 @@
         <v>170</v>
       </c>
       <c r="G51" s="8"/>
+      <c r="H51" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="52" spans="1:7" ht="28.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>59</v>
       </c>
@@ -2922,8 +3091,11 @@
         <v>171</v>
       </c>
       <c r="G52" s="8"/>
+      <c r="H52" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="53" spans="1:7" ht="28.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>60</v>
       </c>
@@ -2939,8 +3111,11 @@
         <v>172</v>
       </c>
       <c r="G53" s="8"/>
+      <c r="H53" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="54" spans="1:7" ht="28.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>61</v>
       </c>
@@ -2956,8 +3131,11 @@
         <v>173</v>
       </c>
       <c r="G54" s="8"/>
+      <c r="H54" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="55" spans="1:7" ht="28.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>62</v>
       </c>
@@ -2973,8 +3151,11 @@
         <v>174</v>
       </c>
       <c r="G55" s="8"/>
+      <c r="H55" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="56" spans="1:7" ht="27.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>63</v>
       </c>
@@ -2987,11 +3168,14 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="G56" s="8"/>
+      <c r="H56" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="57" spans="1:7" ht="28.5" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>64</v>
       </c>
@@ -3007,8 +3191,11 @@
         <v>103</v>
       </c>
       <c r="G57" s="20"/>
+      <c r="H57" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="58" spans="1:7" ht="28.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>63</v>
       </c>
@@ -3024,8 +3211,11 @@
         <v>176</v>
       </c>
       <c r="G58" s="8"/>
+      <c r="H58" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="59" spans="1:7" ht="63" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>64</v>
       </c>
@@ -3041,8 +3231,11 @@
         <v>231</v>
       </c>
       <c r="G59" s="8"/>
+      <c r="H59" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="60" spans="1:7" ht="28.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>65</v>
       </c>
@@ -3058,8 +3251,11 @@
         <v>234</v>
       </c>
       <c r="G60" s="8"/>
+      <c r="H60" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="61" spans="1:7" ht="28.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10">
         <v>66</v>
       </c>
@@ -3075,8 +3271,11 @@
         <v>206</v>
       </c>
       <c r="G61" s="6"/>
+      <c r="H61" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="62" spans="1:7" ht="28.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
         <v>22</v>
       </c>
@@ -3096,8 +3295,11 @@
         <v>78</v>
       </c>
       <c r="G62" s="21"/>
+      <c r="H62" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="63" spans="1:7" ht="28.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
         <v>26</v>
       </c>
@@ -3113,8 +3315,11 @@
         <v>80</v>
       </c>
       <c r="G63" s="8"/>
+      <c r="H63" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="64" spans="1:7" ht="28.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>66</v>
       </c>
@@ -3130,8 +3335,11 @@
         <v>243</v>
       </c>
       <c r="G64" s="7"/>
+      <c r="H64" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="65" spans="1:11" ht="28.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>67</v>
       </c>
@@ -3144,11 +3352,14 @@
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="8" t="s">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="G65" s="7"/>
+      <c r="H65" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="66" spans="1:11" ht="47.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>68</v>
       </c>
@@ -3164,84 +3375,90 @@
         <v>207</v>
       </c>
       <c r="G66" s="6"/>
+      <c r="H66" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="67" spans="1:11" ht="77.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>69</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="14"/>
       <c r="F67" s="6" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G67" s="6"/>
+      <c r="H67" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="68" spans="1:11" ht="63" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="63" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>70</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="16"/>
       <c r="F68" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G68" s="6"/>
+      <c r="H68" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="69" spans="1:11" ht="28.5" hidden="1" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
+    <row r="69" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="6">
+        <v>71</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="6" t="s">
+        <v>310</v>
+      </c>
       <c r="G69" s="6"/>
+      <c r="H69" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="70" spans="1:11" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="6">
-        <v>71</v>
+    <row r="70" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="12">
+        <v>67</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C70" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="F70" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="G70" s="6"/>
-      <c r="K70" s="16"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="8" t="s">
+        <v>320</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L70" xr:uid="{8A15E49D-E3E6-4BFB-9FD7-53150F47AAE3}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="IDA-BIA-001"/>
-        <filter val="IDA-BIA-002"/>
-        <filter val="IDA-BIA-003"/>
-        <filter val="IDA-BIA-004"/>
-        <filter val="IDA-BIA-005"/>
-        <filter val="IDA-BIA-006"/>
-        <filter val="IDA-BIA-007"/>
-        <filter val="IDA-BIA-008"/>
-        <filter val="IDA-BIA-009"/>
-        <filter val="IDA-BIA-010"/>
-        <filter val="IDA-BIA-011"/>
-        <filter val="IDA-BIA-012"/>
-        <filter val="IDA-BIA-013"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L70" xr:uid="{8A15E49D-E3E6-4BFB-9FD7-53150F47AAE3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -3250,10 +3467,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:XFD28"/>
+  <dimension ref="A1:XFD29"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B29" sqref="B29:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36" defaultRowHeight="32.25" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3286,7 +3503,7 @@
         <v>125</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3300,7 +3517,7 @@
         <v>127</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3314,7 +3531,7 @@
         <v>129</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3328,7 +3545,7 @@
         <v>130</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="32.25" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3342,7 +3559,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="32.25" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3356,7 +3573,7 @@
         <v>133</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3370,7 +3587,7 @@
         <v>135</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3384,7 +3601,7 @@
         <v>137</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3398,7 +3615,7 @@
         <v>139</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3412,7 +3629,7 @@
         <v>154</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3426,7 +3643,7 @@
         <v>141</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3440,7 +3657,7 @@
         <v>143</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3454,7 +3671,7 @@
         <v>145</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3468,7 +3685,7 @@
         <v>147</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3482,7 +3699,7 @@
         <v>148</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:16384" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3496,7 +3713,7 @@
         <v>149</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:16384" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3510,7 +3727,7 @@
         <v>150</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:16384" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3524,7 +3741,7 @@
         <v>151</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:16384" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3538,7 +3755,7 @@
         <v>152</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:16384" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3552,7 +3769,7 @@
         <v>186</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:16384" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3560,13 +3777,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3580,7 +3797,7 @@
         <v>127</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -19968,13 +20185,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -36362,13 +36579,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -36376,13 +36593,13 @@
         <v>26</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:16384" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -36390,13 +36607,13 @@
         <v>27</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -36410,11 +36627,25 @@
         <v>143</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>306</v>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>29</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XFD1" xr:uid="{2647E3B9-41B4-4232-8236-97712EE21379}"/>
+  <autoFilter ref="A1:XFD29" xr:uid="{2647E3B9-41B4-4232-8236-97712EE21379}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/docs/requirements/Requirements Detailing References/ID-Authentication/Sprint 11/Consolidated error messages V2.5.xlsx
+++ b/docs/requirements/Requirements Detailing References/ID-Authentication/Sprint 11/Consolidated error messages V2.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIPRequirementsGithub\docs\requirements\Requirements Detailing References\ID-Authentication\Sprint 11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4EC44A0A-2C12-46EC-A6BA-CF24DCABA74F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{86DEAF4E-46F1-402B-9BE3-81C366E069D0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7125" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="328">
   <si>
     <t>IDA-MLC-003</t>
   </si>
@@ -1269,6 +1269,15 @@
   <si>
     <t>Invalid VID/UIN</t>
   </si>
+  <si>
+    <t>Failed to retrieve uin data using Identity Service</t>
+  </si>
+  <si>
+    <t>IDR-VID-009</t>
+  </si>
+  <si>
+    <t>"Failed to retrieve UIN data using Identity Service"</t>
+  </si>
 </sst>
 </file>
 
@@ -3479,10 +3488,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:XFD30"/>
+  <dimension ref="A1:XFD31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36" defaultRowHeight="32.25" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -36670,6 +36679,20 @@
         <v>322</v>
       </c>
     </row>
+    <row r="31" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="34">
+        <v>31</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>326</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:XFD29" xr:uid="{2647E3B9-41B4-4232-8236-97712EE21379}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
